--- a/sprint10/resumen_grups.xlsx
+++ b/sprint10/resumen_grups.xlsx
@@ -465,7 +465,7 @@
         <v>490</v>
       </c>
       <c r="C2" t="n">
-        <v>261.86</v>
+        <v>1155.55</v>
       </c>
       <c r="D2" t="n">
         <v>50</v>
@@ -481,7 +481,7 @@
         <v>318</v>
       </c>
       <c r="C3" t="n">
-        <v>1.67</v>
+        <v>1666.23</v>
       </c>
       <c r="D3" t="n">
         <v>47</v>
@@ -497,7 +497,7 @@
         <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>2.24</v>
+        <v>2244.31</v>
       </c>
       <c r="D4" t="n">
         <v>51</v>
@@ -513,7 +513,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>2.87</v>
+        <v>2871.13</v>
       </c>
       <c r="D5" t="n">
         <v>43</v>
